--- a/data/parking_data/parkinginfo.xlsx
+++ b/data/parking_data/parkinginfo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,78 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>〒300-0874 茨城県土浦市荒川沖西１丁目１８−４</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.032627254812205</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>140.1627266407013</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-01-22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/parking_data/parkinginfo.xlsx
+++ b/data/parking_data/parkinginfo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,78 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>〒277-0852 千葉県柏市旭町１丁目５−４</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.86176929193083</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>139.96990351184087</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-01-20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/parking_data/parkinginfo.xlsx
+++ b/data/parking_data/parkinginfo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,22 +578,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>〒277-0852 千葉県柏市旭町１丁目５−４</t>
+          <t>〒277-0005 千葉県柏市柏４丁目２−１０</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>35.86176929193083</t>
+          <t>35.863097925941084</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>139.96990351184087</t>
+          <t>139.9731191646946</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-01-20</t>
+          <t>2021-01-24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -608,30 +608,1974 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>〒277-0005 千葉県柏市柏４丁目５</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.86256980292967</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>139.9747198820114</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>立体駐車場</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>〒277-0005 千葉県柏市柏１丁目２−２６</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.86046560630681</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>139.97071266174316</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>砂利</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>〒270-0114 千葉県流山市東初石１丁目６</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.87204600839346</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>139.92789635489692</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>砂地</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>〒270-0137 千葉県流山市市野谷１丁目６６７−１４</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.87195820432093</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>139.92188942449388</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>平地</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>〒270-0133 千葉県流山市十太夫３丁目６８</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.87833399605668</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>139.93232654729485</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>立体駐車場</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>〒270-1166 千葉県我孫子市我孫子１丁目１３−５</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.87355250000124</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>140.01223620259785</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>平地</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>〒270-1154 千葉県我孫子市白山２丁目５−２６</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.87138695736817</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>140.00711332635348</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>砂地</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>〒270-1151 千葉県我孫子市本町２丁目３−１７</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.87131727182249</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>140.01226770327295</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>平地</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>〒277-0863 千葉県柏市豊四季１０８ 大同興業</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35.86772358464314</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>139.9280159877841</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>平地</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>〒277-0852 千葉県柏市旭町１丁目９−１３</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.86189346137181</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>139.96814150862926</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>〒271-0092 千葉県松戸市松戸１３１３−１</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>35.78219474752161</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>139.89829888894894</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>〒277-0843 千葉県柏市明原１丁目７−２５</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.862764234560665</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>139.96715380990193</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>〒271-0077 千葉県松戸市根本４５０−１</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>35.78604594158807</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>139.90277767181396</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>〒271-0092 千葉県松戸市松戸１２２６−５ ドトールコーヒーショップ松戸東口店</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.78383117966243</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>139.9021274068323</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>立体駐車場</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>〒271-0092 千葉県松戸市松戸１２９１−４</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>35.783146262237814</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>139.90059938552346</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>〒277-0863 千葉県柏市豊四季４９１−２</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>35.85211250218952</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>139.95263219722204</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>平地</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>〒277-0871 千葉県柏市若柴173ｰ5</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>35.89413866038173</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>139.95468951779534</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>〒270-0017 千葉県松戸市幸谷１５０６−１２</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>35.82256762238024</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>139.9272886747022</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>〒277-0004 千葉県柏市柏下９４</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>35.868993358682495</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>139.98598131074755</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>〒270-0153 千葉県流山市中１２０−２</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>35.852349361949095</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>139.91788387298584</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>〒271-0061 千葉県松戸市栄町西１丁目８５８</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>35.809460893017786</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>139.89801406860352</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>〒270-0144 千葉県流山市前ケ崎５７９</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>35.839771089652196</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>139.93916067018358</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>立体駐車場</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>〒277-0872 千葉県柏市十余二２４８−７９</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>35.88073342127506</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>139.9641507896292</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>〒270-0163 千葉県流山市南流山５丁目１０−２２</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>35.843910949879756</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>139.90019353761522</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>平地</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>〒271-0042 千葉県松戸市主水新田３４３−１</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>35.824218592244115</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>139.89615949525682</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>〒270-0011 千葉県松戸市根木内７０４−７</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>35.83077617329766</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>139.94585546388475</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>〒271-0064 千葉県松戸市上本郷２２３４−６</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>35.79971069081697</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>139.9126556674242</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>立体駐車場</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>True</t>
         </is>

--- a/data/parking_data/parkinginfo.xlsx
+++ b/data/parking_data/parkinginfo.xlsx
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -506,22 +506,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>〒271-0051 千葉県松戸市馬橋１２１</t>
+          <t>〒278-0037 千葉県野田市野田７８１</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.8111833892976</t>
+          <t>35.9497738683397</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>139.917309672597</t>
+          <t>139.865495749773</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2021-01-26</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -568,52 +568,52 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>〒271-0051 千葉県松戸市馬橋１２１</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.8111833892976</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>139.917309672597</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2020-12-29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>〒277-0005 千葉県柏市柏４丁目２−１０</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.863097925941</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>139.973119164694</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2021-01-24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>平面駐車場</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>コンクリート</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -633,14 +633,14 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -650,17 +650,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>〒277-0005 千葉県柏市柏４丁目５</t>
+          <t>〒277-0005 千葉県柏市柏４丁目２−１０</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>35.8625698029296</t>
+          <t>35.863097925941</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>139.974719882011</t>
+          <t>139.973119164694</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>立体駐車場</t>
+          <t>平面駐車場</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -680,22 +680,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>〒277-0005 千葉県柏市柏１丁目２−２６</t>
+          <t>〒277-0005 千葉県柏市柏４丁目５</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>35.8604656063068</t>
+          <t>35.8625698029296</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>139.970712661743</t>
+          <t>139.974719882011</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -742,32 +742,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>平面駐車場</t>
+          <t>立体駐車場</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>砂利</t>
+          <t>コンクリート</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>100</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -784,64 +784,64 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>〒277-0852 千葉県柏市旭町１丁目９−１３</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.8618934613718</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>139.968141508629</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-01-24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>〒270-0114 千葉県流山市東初石１丁目６</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>35.8720460083934</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>139.927896354896</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2021-01-24</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>平面駐車場</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>砂地</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>False</t>
@@ -849,14 +849,14 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -866,17 +866,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>〒270-0137 千葉県流山市市野谷１丁目６６７−１４</t>
+          <t>〒270-0114 千葉県流山市東初石１丁目６</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>35.8719582043209</t>
+          <t>35.8720460083934</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>139.921889424493</t>
+          <t>139.927896354896</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -891,17 +891,17 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>平地</t>
+          <t>砂地</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -938,17 +938,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>〒270-0133 千葉県流山市十太夫３丁目６８</t>
+          <t>〒270-0137 千葉県流山市市野谷１丁目６６７−１４</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>35.8783339960566</t>
+          <t>35.8719582043209</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>139.932326547294</t>
+          <t>139.921889424493</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -958,12 +958,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>立体駐車場</t>
+          <t>平面駐車場</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>コンクリート</t>
+          <t>平地</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -973,17 +973,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>〒270-1166 千葉県我孫子市我孫子１丁目１３−５</t>
+          <t>〒270-0133 千葉県流山市十太夫３丁目６８</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>35.8735525000012</t>
+          <t>35.8783339960566</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>140.012236202597</t>
+          <t>139.932326547294</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>平面駐車場</t>
+          <t>立体駐車場</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>平地</t>
+          <t>コンクリート</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1045,17 +1045,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>〒270-1154 千葉県我孫子市白山２丁目５−２６</t>
+          <t>〒270-1166 千葉県我孫子市我孫子１丁目１３−５</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>35.8713869573681</t>
+          <t>35.8735525000012</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>140.007113326353</t>
+          <t>140.012236202597</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1107,27 +1107,27 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>砂地</t>
+          <t>平地</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
           <t>8</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>5</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1154,17 +1154,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>〒270-1151 千葉県我孫子市本町２丁目３−１７</t>
+          <t>〒270-1154 千葉県我孫子市白山２丁目５−２６</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>35.8713172718224</t>
+          <t>35.8713869573681</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>140.012267703272</t>
+          <t>140.007113326353</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>平地</t>
+          <t>砂地</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>〒277-0863 千葉県柏市豊四季１０８ 大同興業</t>
+          <t>〒270-1151 千葉県我孫子市本町２丁目３−１７</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>35.8677235846431</t>
+          <t>35.8713172718224</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>139.928015987784</t>
+          <t>140.012267703272</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1256,12 +1256,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1298,17 +1298,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>〒277-0852 千葉県柏市旭町１丁目９−１３</t>
+          <t>〒277-0863 千葉県柏市豊四季１０８ 大同興業</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>35.8618934613718</t>
+          <t>35.8677235846431</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>139.968141508629</t>
+          <t>139.928015987784</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1323,17 +1323,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>コンクリート</t>
+          <t>平地</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2810,22 +2810,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>〒278-0037 千葉県野田市野田７８１</t>
+          <t>〒277-0005 千葉県柏市柏１丁目２−２６</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>35.9497738683397</t>
+          <t>35.8604656063068</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>139.865495749773</t>
+          <t>139.970712661743</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-01-26</t>
+          <t>2021-01-24</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>コンクリート</t>
+          <t>砂利</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
           <t>False</t>
@@ -2865,14 +2865,14 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3088,7 +3088,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3232,7 +3232,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3242,17 +3242,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>〒277-0075 千葉県柏市南柏中央６−９</t>
+          <t>〒277-0084 千葉県柏市新柏１丁目２−１</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>35.84474340288268</t>
+          <t>35.838957959590786</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>139.95575420809533</t>
+          <t>139.96659519058042</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3304,7 +3304,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3314,17 +3314,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>〒277-0084 千葉県柏市新柏１丁目２−１</t>
+          <t>〒277-0075 千葉県柏市南柏中央６−９</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>35.838957959590786</t>
+          <t>35.84474340288268</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>139.96659519058042</t>
+          <t>139.95575420809533</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>

--- a/data/parking_data/parkinginfo.xlsx
+++ b/data/parking_data/parkinginfo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -705,14 +705,14 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3232,7 +3232,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3304,7 +3304,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3370,6 +3370,1014 @@
       <c r="N41" t="inlineStr">
         <is>
           <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>〒310-0015 茨城県水戸市宮町１丁目７</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>36.37017431373185</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>140.47744631767273</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>立体駐車場</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>〒310-0851 茨城県水戸市千波町２７６５</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>36.37098636483892</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>140.45329570770264</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>平地</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>〒310-0851 茨城県水戸市千波町３０８０</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>36.36958686722179</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>140.45441150665283</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>平地</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>〒310-0851 茨城県水戸市千波町１２９３−４ ヒルズ・MK</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>36.35856609897966</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>140.4652360430566</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>〒310-0803 茨城県水戸市城南３丁目１５−６</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>36.36422937149508</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>140.4827358657342</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>〒310-0004 茨城県水戸市青柳町４８９−２ メゾン永田</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>36.38783207128451</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>140.47636574998526</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>砂利</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>〒310-0841 茨城県水戸市酒門町 仲田</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>36.35999603991603</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>140.4951178998794</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>〒310-0836 茨城県水戸市元吉田町２２３３−５</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>36.35097791919564</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>140.4825928482215</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>〒312-0045 茨城県ひたちなか市勝田中央１</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>36.39398807817225</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>140.52464246749878</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>立体駐車場</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>〒312-0026 茨城県ひたちなか市勝田本町１ 勝田本町1126-7</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>36.393927624457596</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>140.5233120918274</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>〒312-0063 茨城県ひたちなか市田彦８３６−１３</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>36.41037401753959</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>140.51670620635414</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>〒311-4141 茨城県水戸市赤塚１丁目１</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>36.38197413787745</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>140.41364192962646</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-02-10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>立体駐車場</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>〒311-4153 茨城県水戸市河和田町３６３７−１</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>36.362961394884316</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>140.41141027755938</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>〒309-1721 茨城県笠間市橋爪１９８</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>36.342334842201765</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>140.29146194458008</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>平面駐車場</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>砂利</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>

--- a/data/parking_data/parkinginfo.xlsx
+++ b/data/parking_data/parkinginfo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3386,17 +3386,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>〒310-0015 茨城県水戸市宮町１丁目７</t>
+          <t>〒310-0015 茨城県水戸市宮町１丁目８−３６</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>36.37017431373185</t>
+          <t>36.37001449416467</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>140.47744631767273</t>
+          <t>140.47806859016418</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4376,6 +4376,78 @@
         </is>
       </c>
       <c r="N55" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>〒310-0015 茨城県水戸市宮町１丁目９−１８</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>36.37001449416467</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>140.47892957925797</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-02-11</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>立体駐車場</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>コンクリート</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
         <is>
           <t>True</t>
         </is>
